--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5922,7 +5923,6 @@
           <t>华夏回报混合H</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>64.79</t>
@@ -5954,7 +5954,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -5970,6 +5969,2376 @@
       </c>
       <c r="H91" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1623</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5070</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8344,4 +8345,1846 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7693</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8667</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10187,4 +10188,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10196,7 +10197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10207,17 +10208,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10227,14 +10248,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.3</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>310.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -10243,14 +10286,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.76</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -10259,14 +10324,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.43</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -10275,13 +10362,2733 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>53</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>27.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12987,7 +12988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12998,17 +12999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13018,14 +13039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.62</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>237.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.4156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -13034,14 +13077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.3</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>178.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -13050,14 +13115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.76</v>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -13066,14 +13153,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49.43</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -13082,13 +13191,2789 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1361</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>53</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>27.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15856,7 +15857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15867,17 +15868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15887,14 +15908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.87</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>300.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.6839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -15903,14 +15946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.62</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.2531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -15919,14 +15984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.3</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -15935,14 +16022,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.76</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9646</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -15951,14 +16060,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>90</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49.43</v>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5786</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -15967,13 +16098,3519 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9972</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8730</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8667</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7479</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4426</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3826</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D7" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>53</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>27.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>54.18</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>41.87</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>45.62</v>
+        <v>41.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>39.3</v>
+        <v>45.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>39.76</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>49.43</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>90</v>
+      </c>
+      <c r="D8" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>27.35</v>
       </c>
     </row>
@@ -600,6 +617,2868 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>160.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8968</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4219,7 +7098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7087,7 +9966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9877,7 +12756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11719,7 +14598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14089,7 +16968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17551,7 +20430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603833-欧派家居.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D2" t="n">
-        <v>35.23</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>54.18</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>41.87</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>45.62</v>
+        <v>41.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3</v>
+        <v>45.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>39.76</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>49.43</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2098 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>90</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>53</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>27.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>163.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9623</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6947</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6621</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5653</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004276</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004277</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2702,4426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5783</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>滙豐晉信大盤股票型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016163</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家欣远混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015627</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005652</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国富天颐混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011989</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016164</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家欣远混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009133</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011990</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012480</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012479</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005653</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国富天颐混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009134</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015628</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3478,7 +9983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7098,7 +13603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9966,7 +16471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12756,7 +19261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14598,7 +21103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16968,7 +23473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20428,2072 +26933,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安聚优精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>232.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.0349</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏回报混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>163.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>61.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4131</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>960002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏回报混合H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>163.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>61.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4131</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.1781</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1020</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.1020</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002021</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏回报二号混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>70.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>62.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0004</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>270008</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发核心精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9623</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000408</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6947</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004789</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6621</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>690005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民生加银内需增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5695</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501070</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发睿阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5653</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004788</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4740</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008290</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安现代生活混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2968</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007731</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2916</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002967</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2792</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>400025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2692</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>040020</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安升级主题混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>80.40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2613</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000761</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国富健康优质生活股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2424</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2327</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002547</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>民生加银养老服务灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2246</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009840</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西藏东财量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2224</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>040016</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>80.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2193</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>400007</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方策略成长混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2029</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000884</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>民生加银优选股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1931</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006039</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>519991</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长信双利优选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1310</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006396</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长信双利优选混合E</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1310</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>671030</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>西部利得事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1122</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>450010</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国富策略回报混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.46</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1076</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001352</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>民生加银新战略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001172</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华弘泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0925</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>233011</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>大摩主题优选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0912</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010151</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>西藏东财消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>84.90</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009841</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>西藏东财量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007965</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>民生加银品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>82.64</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>010152</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>西藏东财消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>84.90</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007966</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>民生加银品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007732</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004276</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>浦银安盛安和回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004801</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001381</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>鹏华弘泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009706</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004277</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>浦银安盛安和回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004802</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>